--- a/P3/Results/Data/Gips/Gypsum18g/Results/OTResults.xlsx
+++ b/P3/Results/Data/Gips/Gypsum18g/Results/OTResults.xlsx
@@ -527,7 +527,7 @@
         <v>-33.51</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.54</v>
+        <v>-4.53</v>
       </c>
       <c r="I2" t="n">
         <v>28.97</v>
@@ -542,10 +542,10 @@
         <v>4.3</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.07</v>
+        <v>-7.09</v>
       </c>
       <c r="N2" t="n">
-        <v>-11.37</v>
+        <v>-11.39</v>
       </c>
       <c r="O2" t="n">
         <v>1.06</v>
@@ -567,7 +567,7 @@
         <v>13.98</v>
       </c>
       <c r="D3" t="n">
-        <v>15.11</v>
+        <v>15.12</v>
       </c>
       <c r="E3" t="n">
         <v>15.61</v>
@@ -579,10 +579,10 @@
         <v>-36.19</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.6</v>
+        <v>-6.63</v>
       </c>
       <c r="I3" t="n">
-        <v>29.59</v>
+        <v>29.56</v>
       </c>
       <c r="J3" t="n">
         <v>13.14</v>
@@ -594,10 +594,10 @@
         <v>4.11</v>
       </c>
       <c r="M3" t="n">
-        <v>-7.59</v>
+        <v>-7.61</v>
       </c>
       <c r="N3" t="n">
-        <v>-11.7</v>
+        <v>-11.72</v>
       </c>
       <c r="O3" t="n">
         <v>0.84</v>
@@ -616,10 +616,10 @@
         <v>13.55</v>
       </c>
       <c r="C4" t="n">
-        <v>13.91</v>
+        <v>13.92</v>
       </c>
       <c r="D4" t="n">
-        <v>15.27</v>
+        <v>15.25</v>
       </c>
       <c r="E4" t="n">
         <v>15.63</v>
@@ -631,10 +631,10 @@
         <v>-42.35</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.99</v>
+        <v>-8.81</v>
       </c>
       <c r="I4" t="n">
-        <v>33.36</v>
+        <v>33.54</v>
       </c>
       <c r="J4" t="n">
         <v>12.1</v>
@@ -646,10 +646,10 @@
         <v>3.83</v>
       </c>
       <c r="M4" t="n">
-        <v>-11.66</v>
+        <v>-11.44</v>
       </c>
       <c r="N4" t="n">
-        <v>-15.49</v>
+        <v>-15.27</v>
       </c>
       <c r="O4" t="n">
         <v>0.43</v>
@@ -668,10 +668,10 @@
         <v>15.8</v>
       </c>
       <c r="C5" t="n">
-        <v>13.87</v>
+        <v>13.89</v>
       </c>
       <c r="D5" t="n">
-        <v>16.98</v>
+        <v>17.01</v>
       </c>
       <c r="E5" t="n">
         <v>15.66</v>
@@ -683,10 +683,10 @@
         <v>-24.17</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.92</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>14.25</v>
+        <v>14.39</v>
       </c>
       <c r="J5" t="n">
         <v>15.92</v>
@@ -698,10 +698,10 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>-13.59</v>
+        <v>-13.11</v>
       </c>
       <c r="N5" t="n">
-        <v>-18.09</v>
+        <v>-17.61</v>
       </c>
       <c r="O5" t="n">
         <v>1.54</v>
@@ -723,51 +723,6 @@
           <t>Green_InFront_Camera_light5_exp100182.0_20242011_150527.png</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-19.17</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="K7" t="n">
-        <v>36.98</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-24.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-28.58</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-2.1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -779,7 +734,7 @@
         <v>13.02</v>
       </c>
       <c r="C8" t="n">
-        <v>14.04</v>
+        <v>14.05</v>
       </c>
       <c r="D8" t="n">
         <v>14.81</v>
@@ -794,10 +749,10 @@
         <v>-43.59</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.51</v>
+        <v>-10.43</v>
       </c>
       <c r="I8" t="n">
-        <v>33.09</v>
+        <v>33.17</v>
       </c>
       <c r="J8" t="n">
         <v>12.96</v>
@@ -809,10 +764,10 @@
         <v>3.54</v>
       </c>
       <c r="M8" t="n">
-        <v>-14.58</v>
+        <v>-14.6</v>
       </c>
       <c r="N8" t="n">
-        <v>-18.12</v>
+        <v>-18.14</v>
       </c>
       <c r="O8" t="n">
         <v>0.9</v>
@@ -831,10 +786,10 @@
         <v>16.33</v>
       </c>
       <c r="C9" t="n">
-        <v>14.39</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>15.18</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>15.7</v>
@@ -846,10 +801,10 @@
         <v>-17.04</v>
       </c>
       <c r="H9" t="n">
-        <v>12.97</v>
+        <v>-45.41</v>
       </c>
       <c r="I9" t="n">
-        <v>30.01</v>
+        <v>-28.37</v>
       </c>
       <c r="J9" t="n">
         <v>17.77</v>
@@ -861,10 +816,10 @@
         <v>5.12</v>
       </c>
       <c r="M9" t="n">
-        <v>-24.46</v>
+        <v>-217.04</v>
       </c>
       <c r="N9" t="n">
-        <v>-29.58</v>
+        <v>-222.16</v>
       </c>
       <c r="O9" t="n">
         <v>2.7</v>
@@ -883,10 +838,10 @@
         <v>10.03</v>
       </c>
       <c r="C10" t="n">
-        <v>15.02</v>
+        <v>15.82</v>
       </c>
       <c r="D10" t="n">
-        <v>9.65</v>
+        <v>10.22</v>
       </c>
       <c r="E10" t="n">
         <v>15.29</v>
@@ -898,10 +853,10 @@
         <v>-61.17</v>
       </c>
       <c r="H10" t="n">
-        <v>8.279999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="I10" t="n">
-        <v>69.45999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="J10" t="n">
         <v>7.72</v>
@@ -913,10 +868,10 @@
         <v>3.07</v>
       </c>
       <c r="M10" t="n">
-        <v>-35.22</v>
+        <v>-1.72</v>
       </c>
       <c r="N10" t="n">
-        <v>-38.29</v>
+        <v>-4.79</v>
       </c>
       <c r="O10" t="n">
         <v>-0.19</v>
@@ -931,6 +886,51 @@
           <t>InFront_Camera_light5_exp81670.0_20242011_150947.png</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-36.52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58.41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-2.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -945,7 +945,7 @@
         <v>14.15</v>
       </c>
       <c r="D12" t="n">
-        <v>15.59</v>
+        <v>15.58</v>
       </c>
       <c r="E12" t="n">
         <v>15.55</v>
@@ -957,10 +957,10 @@
         <v>-28.68</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.84</v>
+        <v>-2.79</v>
       </c>
       <c r="I12" t="n">
-        <v>25.83</v>
+        <v>25.89</v>
       </c>
       <c r="J12" t="n">
         <v>15.2</v>
@@ -972,10 +972,10 @@
         <v>3.84</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.89</v>
+        <v>-6.87</v>
       </c>
       <c r="N12" t="n">
-        <v>-10.73</v>
+        <v>-10.71</v>
       </c>
       <c r="O12" t="n">
         <v>1.47</v>
@@ -994,7 +994,7 @@
         <v>13.29</v>
       </c>
       <c r="C13" t="n">
-        <v>14.06</v>
+        <v>14.07</v>
       </c>
       <c r="D13" t="n">
         <v>14.82</v>
@@ -1009,10 +1009,10 @@
         <v>-35.65</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.55</v>
+        <v>-2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>33.1</v>
+        <v>33.11</v>
       </c>
       <c r="J13" t="n">
         <v>13.65</v>
@@ -1061,10 +1061,10 @@
         <v>-20.84</v>
       </c>
       <c r="H14" t="n">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="I14" t="n">
-        <v>24.28</v>
+        <v>24.31</v>
       </c>
       <c r="J14" t="n">
         <v>16.46</v>
@@ -1076,10 +1076,10 @@
         <v>3.54</v>
       </c>
       <c r="M14" t="n">
-        <v>-4.01</v>
+        <v>-4.02</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.55</v>
+        <v>-7.56</v>
       </c>
       <c r="O14" t="n">
         <v>2.21</v>
